--- a/generated_docs/WR_89877351_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I191"/>
+  <dimension ref="A2:I188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>25663.79</v>
+        <v>25336.26</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/24/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -737,12 +737,12 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>ANC-EXP-10-120-T1</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>ANC,Expanding,10in,120in,Tr Eye 1in</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -765,18 +765,18 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>286.25</v>
+        <v>790.5599999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-S-78P-EP</t>
+          <t>CNA-TM</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Span,78in Pole mt,EyePlate</t>
+          <t>CNA,Trim Trees Minor</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -799,28 +799,28 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>107.92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -833,18 +833,18 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>195.83</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 20</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -867,18 +867,18 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>55.18</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,28 +901,28 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>286.25</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -935,28 +935,28 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-S-78P-EP</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Span,78in Pole mt,EyePlate</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -969,28 +969,28 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>35.58</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>GYF-38-S-78P-EP</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>GYF,3/8,Span,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -1003,28 +1003,28 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>17.2</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,18 +1037,18 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,18 +1071,18 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>94.17</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1105,28 +1105,28 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>94.17</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,28 +1139,28 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>55.18</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>GYF-38-S-78P-EP</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>GYF,3/8,Span,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,18 +1173,18 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>55.18</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,18 +1207,18 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>31.08</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,28 +1241,28 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>31.08</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,18 +1275,18 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>17.2</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,18 +1309,18 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>31.72</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,18 +1343,18 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>94.17</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,28 +1377,28 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>94.17</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1411,28 +1411,28 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>55.18</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,32 +1441,32 @@
         </is>
       </c>
       <c r="F36" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>391.66</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,32 +1475,32 @@
         </is>
       </c>
       <c r="F37" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>572.5</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1513,28 +1513,28 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>31.08</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1547,28 +1547,28 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>17.2</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1577,32 +1577,32 @@
         </is>
       </c>
       <c r="F40" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>34.4</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,17 +1611,17 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>17.2</v>
+        <v>391.66</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
@@ -1649,28 +1649,28 @@
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>190.3</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1683,28 +1683,28 @@
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>55.18</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1717,28 +1717,28 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>55.18</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>286.25</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1785,18 +1785,18 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>31.08</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,17 +1815,17 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>31.08</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="C48" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D48" s="9" t="inlineStr">
@@ -1853,13 +1853,13 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>17.2</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="C49" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D49" s="12" t="inlineStr">
@@ -1887,13 +1887,13 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>17.2</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="C50" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D50" s="9" t="inlineStr">
@@ -1921,13 +1921,13 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
@@ -1955,13 +1955,13 @@
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>94.17</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
@@ -1989,13 +1989,13 @@
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>94.17</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
@@ -2023,28 +2023,28 @@
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>55.18</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2057,28 +2057,28 @@
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>55.18</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>195.83</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>55.18</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="57">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2159,28 +2159,28 @@
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>286.25</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2193,28 +2193,28 @@
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>31.08</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2227,28 +2227,28 @@
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>31.08</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2261,13 +2261,13 @@
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>17.2</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D61" s="12" t="inlineStr">
@@ -2295,13 +2295,13 @@
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>17.2</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
@@ -2329,28 +2329,28 @@
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2363,28 +2363,28 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>217.53</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2397,28 +2397,28 @@
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>350.53</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2431,28 +2431,28 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2465,28 +2465,28 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>94.17</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>94.17</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="68">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2529,11 +2529,11 @@
         </is>
       </c>
       <c r="F68" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>110.36</v>
+        <v>217.53</v>
       </c>
     </row>
     <row r="69">
@@ -2544,17 +2544,17 @@
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>ARM-8SF-GN-DL-C</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2563,11 +2563,11 @@
         </is>
       </c>
       <c r="F69" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>391.66</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="70">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>55.18</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2631,32 +2631,32 @@
         </is>
       </c>
       <c r="F71" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>572.5</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2669,28 +2669,28 @@
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>28.6</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>ARM-8D-60S-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>ARM,8Ft Double Wood,60In Sgl.Wd,Corr</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2699,32 +2699,32 @@
         </is>
       </c>
       <c r="F73" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>73.73</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2733,32 +2733,32 @@
         </is>
       </c>
       <c r="F74" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>35.58</v>
+        <v>391.66</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2771,28 +2771,28 @@
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>31.08</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2801,11 +2801,11 @@
         </is>
       </c>
       <c r="F76" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>31.08</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="77">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2835,11 +2835,11 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>34.4</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="78">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>ARM-8D-60S-C</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>ARM,8Ft Double Wood,60In Sgl.Wd,Corr</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2869,11 +2869,11 @@
         </is>
       </c>
       <c r="F78" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>51.6</v>
+        <v>73.73</v>
       </c>
     </row>
     <row r="79">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>17.2</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="80">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2937,32 +2937,32 @@
         </is>
       </c>
       <c r="F80" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>190.3</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2975,28 +2975,28 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>350.53</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -3005,32 +3005,32 @@
         </is>
       </c>
       <c r="F82" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>188.34</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -3043,28 +3043,28 @@
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>188.34</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -3073,32 +3073,32 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>478.55</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>55.18</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="86">
@@ -3122,17 +3122,17 @@
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>195.83</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="87">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3175,11 +3175,11 @@
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>55.18</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="88">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3209,32 +3209,32 @@
         </is>
       </c>
       <c r="F88" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>286.25</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>ARM-8S-60S-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3247,28 +3247,28 @@
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>61.83</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3277,32 +3277,32 @@
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>62.16</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3311,32 +3311,32 @@
         </is>
       </c>
       <c r="F91" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>62.16</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3349,28 +3349,28 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>17.2</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>17.2</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="94">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>ARM-8S-60S-C</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3417,28 +3417,28 @@
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>61.83</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3451,28 +3451,28 @@
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>701.0599999999999</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>BKT-ARML-A-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>BKT,Crossarm inLin,Alum,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3485,28 +3485,28 @@
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>63.44</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3515,32 +3515,32 @@
         </is>
       </c>
       <c r="F97" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>55.2</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3553,28 +3553,28 @@
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>110.74</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3583,11 +3583,11 @@
         </is>
       </c>
       <c r="F99" s="13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>470.85</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3617,11 +3617,11 @@
         </is>
       </c>
       <c r="F100" s="10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>470.85</v>
+        <v>701.0599999999999</v>
       </c>
     </row>
     <row r="101">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>BKT-ARML-A-C</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>BKT,Crossarm inLin,Alum,Corr</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3651,11 +3651,11 @@
         </is>
       </c>
       <c r="F101" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>478.55</v>
+        <v>63.44</v>
       </c>
     </row>
     <row r="102">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3685,11 +3685,11 @@
         </is>
       </c>
       <c r="F102" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>55.18</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="103">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3719,11 +3719,11 @@
         </is>
       </c>
       <c r="F103" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>110.36</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="104">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>SWI-27-CO1-100-H-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3753,32 +3753,32 @@
         </is>
       </c>
       <c r="F104" s="10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>124.84</v>
+        <v>470.85</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3787,32 +3787,32 @@
         </is>
       </c>
       <c r="F105" s="13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>123.66</v>
+        <v>470.85</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>BKT-ARML-A-C</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>BKT,Crossarm inLin,Alum,Corr</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3821,32 +3821,32 @@
         </is>
       </c>
       <c r="F106" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>69.48</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3855,32 +3855,32 @@
         </is>
       </c>
       <c r="F107" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>12.34</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
@@ -3889,32 +3889,32 @@
         </is>
       </c>
       <c r="F108" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SWI-27-CO1-100-H-C</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3923,11 +3923,11 @@
         </is>
       </c>
       <c r="F109" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>60.43</v>
+        <v>124.84</v>
       </c>
     </row>
     <row r="110">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="D110" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E110" s="9" t="inlineStr">
@@ -3957,11 +3957,11 @@
         </is>
       </c>
       <c r="F110" s="10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>155.4</v>
+        <v>123.66</v>
       </c>
     </row>
     <row r="111">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>BKT-ARML-A-C</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>BKT,Crossarm inLin,Alum,Corr</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3991,11 +3991,11 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>155.4</v>
+        <v>69.48</v>
       </c>
     </row>
     <row r="112">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C112" s="9" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="D112" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E112" s="9" t="inlineStr">
@@ -4025,11 +4025,11 @@
         </is>
       </c>
       <c r="F112" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>198.88</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="113">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>DEG-10-SNA</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E113" s="12" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>17.2</v>
+        <v>95.15000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="D114" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E114" s="9" t="inlineStr">
@@ -4093,11 +4093,11 @@
         </is>
       </c>
       <c r="F114" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>34.4</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="115">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="B115" s="12" t="inlineStr">
         <is>
-          <t>SWI-27-CO1-100-H-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C115" s="12" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E115" s="12" t="inlineStr">
@@ -4127,32 +4127,32 @@
         </is>
       </c>
       <c r="F115" s="13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>53.04</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C116" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D116" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E116" s="9" t="inlineStr">
@@ -4161,22 +4161,22 @@
         </is>
       </c>
       <c r="F116" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>478.55</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B117" s="12" t="inlineStr">
         <is>
-          <t>POL-40-5</t>
+          <t>POL-40-4</t>
         </is>
       </c>
       <c r="C117" s="12" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="D117" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 5</t>
+          <t>Pole,40ft,Class 4</t>
         </is>
       </c>
       <c r="E117" s="12" t="inlineStr">
@@ -4205,22 +4205,22 @@
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -4233,28 +4233,28 @@
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>478.55</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B119" s="12" t="inlineStr">
         <is>
-          <t>ANC-EXP-10-120-T1</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>ANC,Expanding,10in,120in,Tr Eye 1in</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E119" s="12" t="inlineStr">
@@ -4263,32 +4263,32 @@
         </is>
       </c>
       <c r="F119" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>790.5599999999999</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>CNA-TM</t>
+          <t>SWI-27-CO1-100-H-C</t>
         </is>
       </c>
       <c r="C120" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D120" s="9" t="inlineStr">
         <is>
-          <t>CNA,Trim Trees Minor</t>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
         </is>
       </c>
       <c r="E120" s="9" t="inlineStr">
@@ -4297,22 +4297,22 @@
         </is>
       </c>
       <c r="F120" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>107.92</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B121" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C121" s="12" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="D121" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E121" s="12" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="G121" s="13" t="inlineStr"/>
       <c r="H121" s="14" t="n">
-        <v>648.53</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="122">
@@ -4346,17 +4346,17 @@
       </c>
       <c r="B122" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-40-5</t>
         </is>
       </c>
       <c r="C122" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D122" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,40ft,Class 5</t>
         </is>
       </c>
       <c r="E122" s="9" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="G122" s="10" t="inlineStr"/>
       <c r="H122" s="11" t="n">
-        <v>648.53</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="123">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="B123" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C123" s="12" t="inlineStr">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="D123" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E123" s="12" t="inlineStr">
@@ -4403,2091 +4403,1989 @@
       </c>
       <c r="G123" s="13" t="inlineStr"/>
       <c r="H123" s="14" t="n">
-        <v>648.53</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B124" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C124" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D124" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E124" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F124" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G124" s="10" t="inlineStr"/>
-      <c r="H124" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="15" t="inlineStr">
+      <c r="A124" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H125" s="16" t="n">
-        <v>17507.52</v>
+      <c r="H124" s="16" t="n">
+        <v>17513.73</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="inlineStr">
+        <is>
+          <t>Wednesday (07/23/2025)</t>
+        </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="7" t="inlineStr">
-        <is>
-          <t>Wednesday (07/23/2025)</t>
+      <c r="A128" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B128" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C128" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D128" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E128" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F128" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G128" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H128" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="8" t="inlineStr">
+      <c r="A129" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B129" s="9" t="inlineStr">
+        <is>
+          <t>TAP-CR-10</t>
+        </is>
+      </c>
+      <c r="C129" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D129" s="9" t="inlineStr">
+        <is>
+          <t>TAP,T Compression Run,1/0</t>
+        </is>
+      </c>
+      <c r="E129" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G129" s="10" t="inlineStr"/>
+      <c r="H129" s="11" t="n">
+        <v>524.15</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B130" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-D1</t>
+        </is>
+      </c>
+      <c r="C130" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D130" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E130" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="13" t="inlineStr"/>
+      <c r="H130" s="14" t="n">
+        <v>217.53</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B131" s="9" t="inlineStr">
+        <is>
+          <t>TAP-CR-10</t>
+        </is>
+      </c>
+      <c r="C131" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D131" s="9" t="inlineStr">
+        <is>
+          <t>TAP,T Compression Run,1/0</t>
+        </is>
+      </c>
+      <c r="E131" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F131" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G131" s="10" t="inlineStr"/>
+      <c r="H131" s="11" t="n">
+        <v>285.9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B132" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C132" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D132" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E132" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" s="13" t="inlineStr"/>
+      <c r="H132" s="14" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B133" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C133" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D133" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E133" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" s="10" t="inlineStr"/>
+      <c r="H133" s="11" t="n">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B134" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C134" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D134" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E134" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="13" t="inlineStr"/>
+      <c r="H134" s="14" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B135" s="9" t="inlineStr">
+        <is>
+          <t>SAA-SP-336</t>
+        </is>
+      </c>
+      <c r="C135" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D135" s="9" t="inlineStr">
+        <is>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
+        </is>
+      </c>
+      <c r="E135" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" s="10" t="inlineStr"/>
+      <c r="H135" s="11" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B136" s="12" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C136" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D136" s="12" t="inlineStr">
+        <is>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+        </is>
+      </c>
+      <c r="E136" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G136" s="13" t="inlineStr"/>
+      <c r="H136" s="14" t="n">
+        <v>391.66</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B137" s="9" t="inlineStr">
+        <is>
+          <t>SVD-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C137" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D137" s="9" t="inlineStr">
+        <is>
+          <t>SVD,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E137" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="10" t="inlineStr"/>
+      <c r="H137" s="11" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B138" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C138" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D138" s="12" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E138" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G138" s="13" t="inlineStr"/>
+      <c r="H138" s="14" t="n">
+        <v>572.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B139" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S-C</t>
+        </is>
+      </c>
+      <c r="C139" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D139" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
+        </is>
+      </c>
+      <c r="E139" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F139" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" s="10" t="inlineStr"/>
+      <c r="H139" s="11" t="n">
+        <v>61.83</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B140" s="12" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C140" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D140" s="12" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E140" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F140" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" s="13" t="inlineStr"/>
+      <c r="H140" s="14" t="n">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B141" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C141" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D141" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E141" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F141" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" s="10" t="inlineStr"/>
+      <c r="H141" s="11" t="n">
+        <v>62.16</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B142" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C142" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D142" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E142" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F142" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" s="13" t="inlineStr"/>
+      <c r="H142" s="14" t="n">
+        <v>62.16</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B143" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20-C</t>
+        </is>
+      </c>
+      <c r="C143" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D143" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+        </is>
+      </c>
+      <c r="E143" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" s="10" t="inlineStr"/>
+      <c r="H143" s="11" t="n">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B144" s="12" t="inlineStr">
+        <is>
+          <t>SVD-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C144" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D144" s="12" t="inlineStr">
+        <is>
+          <t>SVD,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E144" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="13" t="inlineStr"/>
+      <c r="H144" s="14" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B145" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C145" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D145" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E145" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F145" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" s="10" t="inlineStr"/>
+      <c r="H145" s="11" t="n">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B146" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-DL-C</t>
+        </is>
+      </c>
+      <c r="C146" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D146" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+        </is>
+      </c>
+      <c r="E146" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" s="13" t="inlineStr"/>
+      <c r="H146" s="14" t="n">
+        <v>350.53</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B147" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F-C</t>
+        </is>
+      </c>
+      <c r="C147" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D147" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E147" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F147" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" s="10" t="inlineStr"/>
+      <c r="H147" s="11" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B148" s="12" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C148" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D148" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E148" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F148" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="13" t="inlineStr"/>
+      <c r="H148" s="14" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B149" s="9" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C149" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D149" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E149" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G149" s="10" t="inlineStr"/>
+      <c r="H149" s="11" t="n">
+        <v>572.5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B150" s="12" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X-C</t>
+        </is>
+      </c>
+      <c r="C150" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D150" s="12" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+        </is>
+      </c>
+      <c r="E150" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="13" t="inlineStr"/>
+      <c r="H150" s="14" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B151" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C151" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D151" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E151" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" s="10" t="inlineStr"/>
+      <c r="H151" s="11" t="n">
+        <v>110.74</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B152" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-D-78P-EP-C</t>
+        </is>
+      </c>
+      <c r="C152" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D152" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E152" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" s="13" t="inlineStr"/>
+      <c r="H152" s="14" t="n">
+        <v>79.34999999999999</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B153" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20-C</t>
+        </is>
+      </c>
+      <c r="C153" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D153" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+        </is>
+      </c>
+      <c r="E153" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F153" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G153" s="10" t="inlineStr"/>
+      <c r="H153" s="11" t="n">
+        <v>165.54</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B154" s="12" t="inlineStr">
+        <is>
+          <t>SAA-SP-336</t>
+        </is>
+      </c>
+      <c r="C154" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D154" s="12" t="inlineStr">
+        <is>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
+        </is>
+      </c>
+      <c r="E154" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F154" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" s="13" t="inlineStr"/>
+      <c r="H154" s="14" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B155" s="9" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C155" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D155" s="9" t="inlineStr">
+        <is>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+        </is>
+      </c>
+      <c r="E155" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F155" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" s="10" t="inlineStr"/>
+      <c r="H155" s="11" t="n">
+        <v>195.83</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B156" s="12" t="inlineStr">
+        <is>
+          <t>SVD-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C156" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D156" s="12" t="inlineStr">
+        <is>
+          <t>SVD,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E156" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F156" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" s="13" t="inlineStr"/>
+      <c r="H156" s="14" t="n">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B157" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C157" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D157" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E157" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F157" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" s="10" t="inlineStr"/>
+      <c r="H157" s="11" t="n">
+        <v>286.25</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B158" s="12" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C158" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D158" s="12" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E158" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F158" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" s="13" t="inlineStr"/>
+      <c r="H158" s="14" t="n">
+        <v>62.42</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B159" s="9" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C159" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D159" s="9" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E159" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F159" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" s="10" t="inlineStr"/>
+      <c r="H159" s="11" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B160" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8D-60S-C</t>
+        </is>
+      </c>
+      <c r="C160" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D160" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8Ft Double Wood,60In Sgl.Wd,Corr</t>
+        </is>
+      </c>
+      <c r="E160" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F160" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" s="13" t="inlineStr"/>
+      <c r="H160" s="14" t="n">
+        <v>73.73</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B161" s="9" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F-C</t>
+        </is>
+      </c>
+      <c r="C161" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D161" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E161" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F161" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" s="10" t="inlineStr"/>
+      <c r="H161" s="11" t="n">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B162" s="12" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C162" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D162" s="12" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E162" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F162" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G162" s="13" t="inlineStr"/>
+      <c r="H162" s="14" t="n">
+        <v>190.3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B163" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X-C</t>
+        </is>
+      </c>
+      <c r="C163" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D163" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+        </is>
+      </c>
+      <c r="E163" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F163" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" s="10" t="inlineStr"/>
+      <c r="H163" s="11" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B164" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C164" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D164" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E164" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F164" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" s="13" t="inlineStr"/>
+      <c r="H164" s="14" t="n">
+        <v>60.43</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B165" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP-C</t>
+        </is>
+      </c>
+      <c r="C165" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D165" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E165" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F165" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="10" t="inlineStr"/>
+      <c r="H165" s="11" t="n">
+        <v>35.58</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B166" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-5</t>
+        </is>
+      </c>
+      <c r="C166" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D166" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E166" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F166" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" s="13" t="inlineStr"/>
+      <c r="H166" s="14" t="n">
+        <v>198.88</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B167" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-S3</t>
+        </is>
+      </c>
+      <c r="C167" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D167" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Sec Rack 3 Pos</t>
+        </is>
+      </c>
+      <c r="E167" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F167" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" s="10" t="inlineStr"/>
+      <c r="H167" s="11" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B168" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20-C</t>
+        </is>
+      </c>
+      <c r="C168" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D168" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+        </is>
+      </c>
+      <c r="E168" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F168" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G168" s="13" t="inlineStr"/>
+      <c r="H168" s="14" t="n">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B169" s="9" t="inlineStr">
+        <is>
+          <t>SVD-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C169" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D169" s="9" t="inlineStr">
+        <is>
+          <t>SVD,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E169" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F169" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" s="10" t="inlineStr"/>
+      <c r="H169" s="11" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B170" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C170" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D170" s="12" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E170" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F170" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" s="13" t="inlineStr"/>
+      <c r="H170" s="14" t="n">
+        <v>95.15000000000001</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B171" s="9" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C171" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D171" s="9" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E171" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F171" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" s="10" t="inlineStr"/>
+      <c r="H171" s="11" t="n">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H172" s="16" t="n">
+        <v>6296.710000000001</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="7" t="inlineStr">
+        <is>
+          <t>Thursday (07/24/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B129" s="8" t="inlineStr">
+      <c r="B176" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C129" s="8" t="inlineStr">
+      <c r="C176" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D129" s="8" t="inlineStr">
+      <c r="D176" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E129" s="8" t="inlineStr">
+      <c r="E176" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F129" s="8" t="inlineStr">
+      <c r="F176" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G129" s="8" t="inlineStr">
+      <c r="G176" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H129" s="8" t="inlineStr">
+      <c r="H176" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="9" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B130" s="9" t="inlineStr">
+    <row r="177">
+      <c r="A177" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B177" s="9" t="inlineStr">
+        <is>
+          <t>TAP-CR-10</t>
+        </is>
+      </c>
+      <c r="C177" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D177" s="9" t="inlineStr">
+        <is>
+          <t>TAP,T Compression Run,1/0</t>
+        </is>
+      </c>
+      <c r="E177" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F177" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G177" s="10" t="inlineStr"/>
+      <c r="H177" s="11" t="n">
+        <v>571.8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B178" s="12" t="inlineStr">
+        <is>
+          <t>SLB-W-18-A-1-F</t>
+        </is>
+      </c>
+      <c r="C178" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D178" s="12" t="inlineStr">
+        <is>
+          <t>SLB,Wood,18in,Alu,1Pos,Flood</t>
+        </is>
+      </c>
+      <c r="E178" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F178" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" s="13" t="inlineStr"/>
+      <c r="H178" s="14" t="n">
+        <v>118.38</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B179" s="9" t="inlineStr">
+        <is>
+          <t>SLT-400-SFMSG</t>
+        </is>
+      </c>
+      <c r="C179" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D179" s="9" t="inlineStr">
+        <is>
+          <t>400W Multi-Volt Sodm Fldligt, Slipfit,Gr</t>
+        </is>
+      </c>
+      <c r="E179" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F179" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" s="10" t="inlineStr"/>
+      <c r="H179" s="11" t="n">
+        <v>128.82</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B180" s="12" t="inlineStr">
+        <is>
+          <t>XCO-27-100-8-C</t>
+        </is>
+      </c>
+      <c r="C180" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D180" s="12" t="inlineStr">
+        <is>
+          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
+        </is>
+      </c>
+      <c r="E180" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F180" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" s="13" t="inlineStr"/>
+      <c r="H180" s="14" t="n">
+        <v>62.42</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B181" s="9" t="inlineStr">
+        <is>
+          <t>XFR-25-72-120-1B-S</t>
+        </is>
+      </c>
+      <c r="C181" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D181" s="9" t="inlineStr">
+        <is>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
+        </is>
+      </c>
+      <c r="E181" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F181" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" s="10" t="inlineStr"/>
+      <c r="H181" s="11" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B182" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F-C</t>
+        </is>
+      </c>
+      <c r="C182" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D182" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E182" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F182" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" s="13" t="inlineStr"/>
+      <c r="H182" s="14" t="n">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B183" s="9" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X-C</t>
+        </is>
+      </c>
+      <c r="C183" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D183" s="9" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+        </is>
+      </c>
+      <c r="E183" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F183" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" s="10" t="inlineStr"/>
+      <c r="H183" s="11" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B184" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C184" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D184" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E184" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F184" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="13" t="inlineStr"/>
+      <c r="H184" s="14" t="n">
+        <v>60.43</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B185" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C130" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D130" s="9" t="inlineStr">
+      <c r="C185" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D185" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E130" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F130" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G130" s="10" t="inlineStr"/>
-      <c r="H130" s="11" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="12" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B131" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C131" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D131" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E131" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F131" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G131" s="13" t="inlineStr"/>
-      <c r="H131" s="14" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="9" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B132" s="9" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C132" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D132" s="9" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E132" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F132" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G132" s="10" t="inlineStr"/>
-      <c r="H132" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="12" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B133" s="12" t="inlineStr">
-        <is>
-          <t>SAA-SP-336</t>
-        </is>
-      </c>
-      <c r="C133" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D133" s="12" t="inlineStr">
-        <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
-        </is>
-      </c>
-      <c r="E133" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F133" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" s="13" t="inlineStr"/>
-      <c r="H133" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="9" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B134" s="9" t="inlineStr">
-        <is>
-          <t>SVC-2-TP-AAA-RS</t>
-        </is>
-      </c>
-      <c r="C134" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D134" s="9" t="inlineStr">
-        <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
-        </is>
-      </c>
-      <c r="E134" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F134" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G134" s="10" t="inlineStr"/>
-      <c r="H134" s="11" t="n">
-        <v>391.66</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="12" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B135" s="12" t="inlineStr">
-        <is>
-          <t>SVD-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C135" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D135" s="12" t="inlineStr">
-        <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E135" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F135" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" s="13" t="inlineStr"/>
-      <c r="H135" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="9" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B136" s="9" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C136" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D136" s="9" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E136" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F136" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G136" s="10" t="inlineStr"/>
-      <c r="H136" s="11" t="n">
-        <v>572.5</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="12" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B137" s="12" t="inlineStr">
-        <is>
-          <t>ARM-8S-60S-C</t>
-        </is>
-      </c>
-      <c r="C137" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D137" s="12" t="inlineStr">
-        <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
-        </is>
-      </c>
-      <c r="E137" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F137" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" s="13" t="inlineStr"/>
-      <c r="H137" s="14" t="n">
-        <v>61.83</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="9" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B138" s="9" t="inlineStr">
-        <is>
-          <t>DEC-20AL-C</t>
-        </is>
-      </c>
-      <c r="C138" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D138" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E138" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F138" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G138" s="10" t="inlineStr"/>
-      <c r="H138" s="11" t="n">
-        <v>190.3</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="12" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B139" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C139" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D139" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E139" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F139" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G139" s="13" t="inlineStr"/>
-      <c r="H139" s="14" t="n">
-        <v>62.16</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="9" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B140" s="9" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C140" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D140" s="9" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E140" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F140" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G140" s="10" t="inlineStr"/>
-      <c r="H140" s="11" t="n">
-        <v>62.16</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="12" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B141" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DE-20-C</t>
-        </is>
-      </c>
-      <c r="C141" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D141" s="12" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
-        </is>
-      </c>
-      <c r="E141" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F141" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G141" s="13" t="inlineStr"/>
-      <c r="H141" s="14" t="n">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="9" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B142" s="9" t="inlineStr">
-        <is>
-          <t>SVD-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C142" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D142" s="9" t="inlineStr">
-        <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E142" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F142" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" s="10" t="inlineStr"/>
-      <c r="H142" s="11" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="12" t="inlineStr">
-        <is>
-          <t>Point 20</t>
-        </is>
-      </c>
-      <c r="B143" s="12" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C143" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D143" s="12" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E143" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F143" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G143" s="13" t="inlineStr"/>
-      <c r="H143" s="14" t="n">
-        <v>190.3</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B144" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-DL-C</t>
-        </is>
-      </c>
-      <c r="C144" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D144" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
-        </is>
-      </c>
-      <c r="E144" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F144" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" s="10" t="inlineStr"/>
-      <c r="H144" s="11" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B145" s="12" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F-C</t>
-        </is>
-      </c>
-      <c r="C145" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D145" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E145" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F145" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G145" s="13" t="inlineStr"/>
-      <c r="H145" s="14" t="n">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B146" s="9" t="inlineStr">
-        <is>
-          <t>CND-S620A</t>
-        </is>
-      </c>
-      <c r="C146" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D146" s="9" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
-        </is>
-      </c>
-      <c r="E146" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F146" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" s="10" t="inlineStr"/>
-      <c r="H146" s="11" t="n">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B147" s="12" t="inlineStr">
-        <is>
-          <t>DEC-20AL-C</t>
-        </is>
-      </c>
-      <c r="C147" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D147" s="12" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E147" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F147" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G147" s="13" t="inlineStr"/>
-      <c r="H147" s="14" t="n">
-        <v>572.5</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B148" s="9" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
-        </is>
-      </c>
-      <c r="C148" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D148" s="9" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
-        </is>
-      </c>
-      <c r="E148" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F148" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G148" s="10" t="inlineStr"/>
-      <c r="H148" s="11" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B149" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C149" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D149" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E149" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F149" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G149" s="13" t="inlineStr"/>
-      <c r="H149" s="14" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B150" s="9" t="inlineStr">
-        <is>
-          <t>GYF-38-D-78P-EP-C</t>
-        </is>
-      </c>
-      <c r="C150" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D150" s="9" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E150" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" s="10" t="inlineStr"/>
-      <c r="H150" s="11" t="n">
-        <v>79.34999999999999</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B151" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DE-20-C</t>
-        </is>
-      </c>
-      <c r="C151" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D151" s="12" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
-        </is>
-      </c>
-      <c r="E151" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G151" s="13" t="inlineStr"/>
-      <c r="H151" s="14" t="n">
-        <v>165.54</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B152" s="9" t="inlineStr">
-        <is>
-          <t>SAA-SP-336</t>
-        </is>
-      </c>
-      <c r="C152" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D152" s="9" t="inlineStr">
-        <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
-        </is>
-      </c>
-      <c r="E152" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F152" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" s="10" t="inlineStr"/>
-      <c r="H152" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B153" s="12" t="inlineStr">
-        <is>
-          <t>SVC-2-TP-AAA-RS</t>
-        </is>
-      </c>
-      <c r="C153" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D153" s="12" t="inlineStr">
-        <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
-        </is>
-      </c>
-      <c r="E153" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F153" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G153" s="13" t="inlineStr"/>
-      <c r="H153" s="14" t="n">
-        <v>195.83</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B154" s="9" t="inlineStr">
-        <is>
-          <t>SVD-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C154" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D154" s="9" t="inlineStr">
-        <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E154" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F154" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G154" s="10" t="inlineStr"/>
-      <c r="H154" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B155" s="12" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C155" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D155" s="12" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E155" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F155" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G155" s="13" t="inlineStr"/>
-      <c r="H155" s="14" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B156" s="9" t="inlineStr">
+      <c r="E185" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F185" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" s="10" t="inlineStr"/>
+      <c r="H185" s="11" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B186" s="12" t="inlineStr">
         <is>
           <t>XCO-27-100-8-C</t>
         </is>
       </c>
-      <c r="C156" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D156" s="9" t="inlineStr">
+      <c r="C186" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D186" s="12" t="inlineStr">
         <is>
           <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
-      <c r="E156" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F156" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" s="10" t="inlineStr"/>
-      <c r="H156" s="11" t="n">
-        <v>62.42</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="12" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B157" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-T1-C</t>
-        </is>
-      </c>
-      <c r="C157" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D157" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
-        </is>
-      </c>
-      <c r="E157" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F157" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G157" s="13" t="inlineStr"/>
-      <c r="H157" s="14" t="n">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B158" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8D-60S-C</t>
-        </is>
-      </c>
-      <c r="C158" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D158" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8Ft Double Wood,60In Sgl.Wd,Corr</t>
-        </is>
-      </c>
-      <c r="E158" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F158" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G158" s="10" t="inlineStr"/>
-      <c r="H158" s="11" t="n">
-        <v>73.73</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="12" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B159" s="12" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F-C</t>
-        </is>
-      </c>
-      <c r="C159" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D159" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E159" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F159" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" s="13" t="inlineStr"/>
-      <c r="H159" s="14" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B160" s="9" t="inlineStr">
-        <is>
-          <t>DEC-20AL-C</t>
-        </is>
-      </c>
-      <c r="C160" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D160" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
-        </is>
-      </c>
-      <c r="E160" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F160" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G160" s="10" t="inlineStr"/>
-      <c r="H160" s="11" t="n">
-        <v>190.3</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="12" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B161" s="12" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
-        </is>
-      </c>
-      <c r="C161" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D161" s="12" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
-        </is>
-      </c>
-      <c r="E161" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F161" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" s="13" t="inlineStr"/>
-      <c r="H161" s="14" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B162" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C162" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D162" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E162" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F162" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G162" s="10" t="inlineStr"/>
-      <c r="H162" s="11" t="n">
-        <v>60.43</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="12" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B163" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-D-42P-EP-C</t>
-        </is>
-      </c>
-      <c r="C163" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D163" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
-        </is>
-      </c>
-      <c r="E163" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F163" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" s="13" t="inlineStr"/>
-      <c r="H163" s="14" t="n">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B164" s="9" t="inlineStr">
-        <is>
-          <t>POL-40-5</t>
-        </is>
-      </c>
-      <c r="C164" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D164" s="9" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 5</t>
-        </is>
-      </c>
-      <c r="E164" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F164" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" s="10" t="inlineStr"/>
-      <c r="H164" s="11" t="n">
-        <v>198.88</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="12" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B165" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-S3</t>
-        </is>
-      </c>
-      <c r="C165" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D165" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Sec Rack 3 Pos</t>
-        </is>
-      </c>
-      <c r="E165" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F165" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" s="13" t="inlineStr"/>
-      <c r="H165" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B166" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DE-20-C</t>
-        </is>
-      </c>
-      <c r="C166" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D166" s="9" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
-        </is>
-      </c>
-      <c r="E166" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F166" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G166" s="10" t="inlineStr"/>
-      <c r="H166" s="11" t="n">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="12" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B167" s="12" t="inlineStr">
-        <is>
-          <t>SVD-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C167" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D167" s="12" t="inlineStr">
-        <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E167" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F167" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G167" s="13" t="inlineStr"/>
-      <c r="H167" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="9" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B168" s="9" t="inlineStr">
-        <is>
-          <t>SVD-SG2</t>
-        </is>
-      </c>
-      <c r="C168" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D168" s="9" t="inlineStr">
-        <is>
-          <t>SVD,Service Grip,#2</t>
-        </is>
-      </c>
-      <c r="E168" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F168" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G168" s="10" t="inlineStr"/>
-      <c r="H168" s="11" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="12" t="inlineStr">
-        <is>
-          <t>Point 22</t>
-        </is>
-      </c>
-      <c r="B169" s="12" t="inlineStr">
-        <is>
-          <t>XCO-27-100-8-C</t>
-        </is>
-      </c>
-      <c r="C169" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D169" s="12" t="inlineStr">
-        <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
-        </is>
-      </c>
-      <c r="E169" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F169" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" s="13" t="inlineStr"/>
-      <c r="H169" s="14" t="n">
+      <c r="E186" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F186" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" s="13" t="inlineStr"/>
+      <c r="H186" s="14" t="n">
         <v>26.52</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="9" t="inlineStr">
-        <is>
-          <t>Point 19</t>
-        </is>
-      </c>
-      <c r="B170" s="9" t="inlineStr">
-        <is>
-          <t>TAP-CR-10</t>
-        </is>
-      </c>
-      <c r="C170" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D170" s="9" t="inlineStr">
-        <is>
-          <t>TAP,T Compression Run,1/0</t>
-        </is>
-      </c>
-      <c r="E170" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F170" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="G170" s="10" t="inlineStr"/>
-      <c r="H170" s="11" t="n">
-        <v>524.15</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="12" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B171" s="12" t="inlineStr">
-        <is>
-          <t>ANC-DHM-10-84-D1</t>
-        </is>
-      </c>
-      <c r="C171" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D171" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
-        </is>
-      </c>
-      <c r="E171" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F171" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G171" s="13" t="inlineStr"/>
-      <c r="H171" s="14" t="n">
-        <v>217.53</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="9" t="inlineStr">
-        <is>
-          <t>Point 21</t>
-        </is>
-      </c>
-      <c r="B172" s="9" t="inlineStr">
-        <is>
-          <t>TAP-CR-10</t>
-        </is>
-      </c>
-      <c r="C172" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D172" s="9" t="inlineStr">
-        <is>
-          <t>TAP,T Compression Run,1/0</t>
-        </is>
-      </c>
-      <c r="E172" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F172" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G172" s="10" t="inlineStr"/>
-      <c r="H172" s="11" t="n">
-        <v>285.9</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="15" t="inlineStr">
+    <row r="187">
+      <c r="A187" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B187" s="9" t="inlineStr">
+        <is>
+          <t>XFR-25-72-120-1B-S</t>
+        </is>
+      </c>
+      <c r="C187" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D187" s="9" t="inlineStr">
+        <is>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
+        </is>
+      </c>
+      <c r="E187" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F187" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" s="10" t="inlineStr"/>
+      <c r="H187" s="11" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H173" s="16" t="n">
-        <v>6296.709999999999</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="7" t="inlineStr">
-        <is>
-          <t>Thursday (07/24/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B177" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C177" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D177" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E177" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F177" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G177" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H177" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B178" s="9" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
-        </is>
-      </c>
-      <c r="C178" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D178" s="9" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
-        </is>
-      </c>
-      <c r="E178" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F178" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G178" s="10" t="inlineStr"/>
-      <c r="H178" s="11" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B179" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C179" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D179" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E179" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F179" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G179" s="13" t="inlineStr"/>
-      <c r="H179" s="14" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B180" s="9" t="inlineStr">
-        <is>
-          <t>SLB-W-18-A-1-F</t>
-        </is>
-      </c>
-      <c r="C180" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D180" s="9" t="inlineStr">
-        <is>
-          <t>SLB,Wood,18in,Alu,1Pos,Flood</t>
-        </is>
-      </c>
-      <c r="E180" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F180" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" s="10" t="inlineStr"/>
-      <c r="H180" s="11" t="n">
-        <v>118.38</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B181" s="12" t="inlineStr">
-        <is>
-          <t>SLT-400-SFMSG</t>
-        </is>
-      </c>
-      <c r="C181" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D181" s="12" t="inlineStr">
-        <is>
-          <t>400W Multi-Volt Sodm Fldligt, Slipfit,Gr</t>
-        </is>
-      </c>
-      <c r="E181" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F181" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G181" s="13" t="inlineStr"/>
-      <c r="H181" s="14" t="n">
-        <v>128.82</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B182" s="9" t="inlineStr">
-        <is>
-          <t>XCO-27-100-8-C</t>
-        </is>
-      </c>
-      <c r="C182" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D182" s="9" t="inlineStr">
-        <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
-        </is>
-      </c>
-      <c r="E182" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F182" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G182" s="10" t="inlineStr"/>
-      <c r="H182" s="11" t="n">
-        <v>62.42</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B183" s="12" t="inlineStr">
-        <is>
-          <t>XFR-25-72-120-1B-S</t>
-        </is>
-      </c>
-      <c r="C183" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D183" s="12" t="inlineStr">
-        <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
-        </is>
-      </c>
-      <c r="E183" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F183" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G183" s="13" t="inlineStr"/>
-      <c r="H183" s="14" t="n">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B184" s="9" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F-C</t>
-        </is>
-      </c>
-      <c r="C184" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D184" s="9" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
-        </is>
-      </c>
-      <c r="E184" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F184" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G184" s="10" t="inlineStr"/>
-      <c r="H184" s="11" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B185" s="12" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
-        </is>
-      </c>
-      <c r="C185" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D185" s="12" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
-        </is>
-      </c>
-      <c r="E185" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F185" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G185" s="13" t="inlineStr"/>
-      <c r="H185" s="14" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B186" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C186" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D186" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E186" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F186" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" s="10" t="inlineStr"/>
-      <c r="H186" s="11" t="n">
-        <v>60.43</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B187" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C187" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D187" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E187" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F187" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G187" s="13" t="inlineStr"/>
-      <c r="H187" s="14" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B188" s="9" t="inlineStr">
-        <is>
-          <t>XCO-27-100-8-C</t>
-        </is>
-      </c>
-      <c r="C188" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D188" s="9" t="inlineStr">
-        <is>
-          <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
-        </is>
-      </c>
-      <c r="E188" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F188" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G188" s="10" t="inlineStr"/>
-      <c r="H188" s="11" t="n">
-        <v>26.52</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B189" s="12" t="inlineStr">
-        <is>
-          <t>XFR-25-72-120-1B-S</t>
-        </is>
-      </c>
-      <c r="C189" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D189" s="12" t="inlineStr">
-        <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
-        </is>
-      </c>
-      <c r="E189" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F189" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G189" s="13" t="inlineStr"/>
-      <c r="H189" s="14" t="n">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B190" s="9" t="inlineStr">
-        <is>
-          <t>TAP-CR-10</t>
-        </is>
-      </c>
-      <c r="C190" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D190" s="9" t="inlineStr">
-        <is>
-          <t>TAP,T Compression Run,1/0</t>
-        </is>
-      </c>
-      <c r="E190" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F190" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G190" s="10" t="inlineStr"/>
-      <c r="H190" s="11" t="n">
-        <v>571.8</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H191" s="16" t="n">
-        <v>1859.56</v>
+      <c r="H188" s="16" t="n">
+        <v>1525.82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A176:H176"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="A188:G188"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A175:H175"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A127:H127"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A128:H128"/>
+    <mergeCell ref="A172:G172"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A191:G191"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>

--- a/generated_docs/WR_89877351_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I188"/>
+  <dimension ref="A2:I262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>25336.26</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>790.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>107.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1014,30 +1014,30 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>GYW-38</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1105,28 +1105,28 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,28 +1139,28 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-S-78P-EP</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Span,78in Pole mt,EyePlate</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,13 +1173,13 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
@@ -1207,13 +1207,13 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C30" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D30" s="9" t="inlineStr">
@@ -1241,28 +1241,28 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,28 +1275,28 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GYF-38-S-78P-EP</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GYF,3/8,Span,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1309,62 +1309,62 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>GYW-38</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1377,18 +1377,18 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1411,18 +1411,18 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1445,18 +1445,18 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1479,28 +1479,28 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1513,18 +1513,18 @@
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1547,18 +1547,18 @@
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C40" s="9" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D40" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E40" s="9" t="inlineStr">
@@ -1581,28 +1581,28 @@
       </c>
       <c r="G40" s="10" t="inlineStr"/>
       <c r="H40" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B41" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C41" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D41" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E41" s="12" t="inlineStr">
@@ -1611,22 +1611,22 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="13" t="inlineStr"/>
       <c r="H41" s="14" t="n">
-        <v>391.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1645,32 +1645,32 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C44" s="9" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D44" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E44" s="9" t="inlineStr">
@@ -1717,18 +1717,18 @@
       </c>
       <c r="G44" s="10" t="inlineStr"/>
       <c r="H44" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B45" s="12" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C45" s="12" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D45" s="12" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E45" s="12" t="inlineStr">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="13" t="inlineStr"/>
       <c r="H45" s="14" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C46" s="9" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="D46" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E46" s="9" t="inlineStr">
@@ -1785,18 +1785,18 @@
       </c>
       <c r="G46" s="10" t="inlineStr"/>
       <c r="H46" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B47" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C47" s="12" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="D47" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E47" s="12" t="inlineStr">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G47" s="13" t="inlineStr"/>
       <c r="H47" s="14" t="n">
-        <v>190.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B48" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C48" s="9" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="D48" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E48" s="9" t="inlineStr">
@@ -1853,18 +1853,18 @@
       </c>
       <c r="G48" s="10" t="inlineStr"/>
       <c r="H48" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B49" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C49" s="12" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="D49" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E49" s="12" t="inlineStr">
@@ -1887,18 +1887,18 @@
       </c>
       <c r="G49" s="13" t="inlineStr"/>
       <c r="H49" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B50" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C50" s="9" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="D50" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E50" s="9" t="inlineStr">
@@ -1921,28 +1921,28 @@
       </c>
       <c r="G50" s="10" t="inlineStr"/>
       <c r="H50" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B51" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C51" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D51" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E51" s="12" t="inlineStr">
@@ -1951,32 +1951,32 @@
         </is>
       </c>
       <c r="F51" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="13" t="inlineStr"/>
       <c r="H51" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B52" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C52" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D52" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E52" s="9" t="inlineStr">
@@ -1985,32 +1985,32 @@
         </is>
       </c>
       <c r="F52" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="10" t="inlineStr"/>
       <c r="H52" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B53" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D53" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E53" s="12" t="inlineStr">
@@ -2019,32 +2019,32 @@
         </is>
       </c>
       <c r="F53" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="13" t="inlineStr"/>
       <c r="H53" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B54" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C54" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D54" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E54" s="9" t="inlineStr">
@@ -2053,22 +2053,22 @@
         </is>
       </c>
       <c r="F54" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G54" s="10" t="inlineStr"/>
       <c r="H54" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B55" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C55" s="12" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="D55" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E55" s="12" t="inlineStr">
@@ -2091,28 +2091,28 @@
       </c>
       <c r="G55" s="13" t="inlineStr"/>
       <c r="H55" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B56" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C56" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D56" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E56" s="9" t="inlineStr">
@@ -2125,28 +2125,28 @@
       </c>
       <c r="G56" s="10" t="inlineStr"/>
       <c r="H56" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B57" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C57" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D57" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E57" s="12" t="inlineStr">
@@ -2155,32 +2155,32 @@
         </is>
       </c>
       <c r="F57" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="13" t="inlineStr"/>
       <c r="H57" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B58" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C58" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D58" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E58" s="9" t="inlineStr">
@@ -2189,32 +2189,32 @@
         </is>
       </c>
       <c r="F58" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="10" t="inlineStr"/>
       <c r="H58" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B59" s="12" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C59" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D59" s="12" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E59" s="12" t="inlineStr">
@@ -2227,28 +2227,28 @@
       </c>
       <c r="G59" s="13" t="inlineStr"/>
       <c r="H59" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2257,32 +2257,32 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2291,22 +2291,22 @@
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2329,28 +2329,28 @@
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2363,28 +2363,28 @@
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2397,28 +2397,28 @@
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2431,28 +2431,28 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2461,22 +2461,22 @@
         </is>
       </c>
       <c r="F66" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2499,28 +2499,28 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2533,28 +2533,28 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>217.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-DL-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2567,28 +2567,28 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP-C</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2601,28 +2601,28 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2635,28 +2635,28 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2669,28 +2669,28 @@
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2699,32 +2699,32 @@
         </is>
       </c>
       <c r="F73" s="13" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2733,22 +2733,22 @@
         </is>
       </c>
       <c r="F74" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>391.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2771,18 +2771,18 @@
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2801,32 +2801,32 @@
         </is>
       </c>
       <c r="F76" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>ANC-DHM-10-84-T1-C</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2839,28 +2839,28 @@
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>ARM-8D-60S-C</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>ARM,8Ft Double Wood,60In Sgl.Wd,Corr</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2873,28 +2873,28 @@
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>73.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2907,28 +2907,28 @@
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2941,28 +2941,28 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>35.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2975,28 +2975,28 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -3005,22 +3005,22 @@
         </is>
       </c>
       <c r="F82" s="10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -3039,22 +3039,22 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>SAA-SP-336</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>SAA,Spreader Bkt, 336MCM Max</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -3073,22 +3073,22 @@
         </is>
       </c>
       <c r="F84" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -3111,28 +3111,28 @@
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -3145,28 +3145,28 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -3175,32 +3175,32 @@
         </is>
       </c>
       <c r="F87" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -3209,32 +3209,32 @@
         </is>
       </c>
       <c r="F88" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3243,22 +3243,22 @@
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3281,28 +3281,28 @@
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-AAA-RS</t>
+          <t>ARM-8SF-GN-DL-C</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3315,18 +3315,18 @@
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3349,18 +3349,18 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3383,62 +3383,62 @@
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>ARM-8S-60S-C</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>61.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3447,32 +3447,32 @@
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3481,32 +3481,32 @@
         </is>
       </c>
       <c r="F96" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>62.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C97" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D97" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E97" s="12" t="inlineStr">
@@ -3519,28 +3519,28 @@
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>PLD-EYE-ARM-C</t>
         </is>
       </c>
       <c r="C98" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D98" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
         </is>
       </c>
       <c r="E98" s="9" t="inlineStr">
@@ -3549,32 +3549,32 @@
         </is>
       </c>
       <c r="F98" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3583,22 +3583,22 @@
         </is>
       </c>
       <c r="F99" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3621,28 +3621,28 @@
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>701.0599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B101" s="12" t="inlineStr">
         <is>
-          <t>BKT-ARML-A-C</t>
+          <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>BKT,Crossarm inLin,Alum,Corr</t>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
       <c r="E101" s="12" t="inlineStr">
@@ -3655,18 +3655,18 @@
       </c>
       <c r="G101" s="13" t="inlineStr"/>
       <c r="H101" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B102" s="9" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C102" s="9" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="D102" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E102" s="9" t="inlineStr">
@@ -3689,18 +3689,18 @@
       </c>
       <c r="G102" s="10" t="inlineStr"/>
       <c r="H102" s="11" t="n">
-        <v>55.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B103" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C103" s="12" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="D103" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E103" s="12" t="inlineStr">
@@ -3723,18 +3723,18 @@
       </c>
       <c r="G103" s="13" t="inlineStr"/>
       <c r="H103" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B104" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C104" s="9" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="D104" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E104" s="9" t="inlineStr">
@@ -3753,32 +3753,32 @@
         </is>
       </c>
       <c r="F104" s="10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G104" s="10" t="inlineStr"/>
       <c r="H104" s="11" t="n">
-        <v>470.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B105" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C105" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D105" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E105" s="12" t="inlineStr">
@@ -3787,32 +3787,32 @@
         </is>
       </c>
       <c r="F105" s="13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G105" s="13" t="inlineStr"/>
       <c r="H105" s="14" t="n">
-        <v>470.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>ARM-8D-60S-C</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>ARM,8Ft Double Wood,60In Sgl.Wd,Corr</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3825,28 +3825,28 @@
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>ARM-BR-60S-C</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>ARM,Brace only Wood,60in Sgl.Wd,Corr</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3859,28 +3859,28 @@
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
@@ -3889,32 +3889,32 @@
         </is>
       </c>
       <c r="F108" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>SWI-27-CO1-100-H-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="F109" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>124.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>ARM-8SF-GN-TL-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="D110" s="9" t="inlineStr">
         <is>
-          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E110" s="9" t="inlineStr">
@@ -3957,22 +3957,22 @@
         </is>
       </c>
       <c r="F110" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>123.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>BKT-ARML-A-C</t>
+          <t>GYF-38-78W-I-C</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>BKT,Crossarm inLin,Alum,Corr</t>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3991,22 +3991,22 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>69.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
       <c r="C112" s="9" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="D112" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
       <c r="E112" s="9" t="inlineStr">
@@ -4025,22 +4025,22 @@
         </is>
       </c>
       <c r="F112" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>12.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>DEG-10-SNA</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
@@ -4050,31 +4050,31 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>DEG,1/0,Secondary Neutral Al</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E113" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F113" s="13" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="D114" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E114" s="9" t="inlineStr">
@@ -4093,17 +4093,17 @@
         </is>
       </c>
       <c r="F114" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B115" s="12" t="inlineStr">
@@ -4127,22 +4127,22 @@
         </is>
       </c>
       <c r="F115" s="13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>155.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>PLD-EYE-ARM-C</t>
         </is>
       </c>
       <c r="C116" s="9" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="D116" s="9" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
         </is>
       </c>
       <c r="E116" s="9" t="inlineStr">
@@ -4161,17 +4161,17 @@
         </is>
       </c>
       <c r="F116" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>155.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B117" s="12" t="inlineStr">
@@ -4199,18 +4199,18 @@
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -4229,22 +4229,22 @@
         </is>
       </c>
       <c r="F118" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B119" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>SAA-SP-336</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
       <c r="E119" s="12" t="inlineStr">
@@ -4263,22 +4263,22 @@
         </is>
       </c>
       <c r="F119" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>SWI-27-CO1-100-H-C</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C120" s="9" t="inlineStr">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="D120" s="9" t="inlineStr">
         <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E120" s="9" t="inlineStr">
@@ -4301,28 +4301,28 @@
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>53.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B121" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C121" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D121" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E121" s="12" t="inlineStr">
@@ -4335,28 +4335,28 @@
       </c>
       <c r="G121" s="13" t="inlineStr"/>
       <c r="H121" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="9" t="inlineStr">
         <is>
-          <t>Point 20</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B122" s="9" t="inlineStr">
         <is>
-          <t>POL-40-5</t>
+          <t>ARM-8SF-GN-TL-C</t>
         </is>
       </c>
       <c r="C122" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D122" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 5</t>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
         </is>
       </c>
       <c r="E122" s="9" t="inlineStr">
@@ -4369,18 +4369,18 @@
       </c>
       <c r="G122" s="10" t="inlineStr"/>
       <c r="H122" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B123" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C123" s="12" t="inlineStr">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="D123" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E123" s="12" t="inlineStr">
@@ -4399,1994 +4399,4510 @@
         </is>
       </c>
       <c r="F123" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" s="13" t="inlineStr"/>
       <c r="H123" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="15" t="inlineStr">
+      <c r="A124" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C124" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D124" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G124" s="10" t="inlineStr"/>
+      <c r="H124" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B125" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C125" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D125" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E125" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="13" t="inlineStr"/>
+      <c r="H125" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B126" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C126" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D126" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E126" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="10" t="inlineStr"/>
+      <c r="H126" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B127" s="12" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-AAA-RS</t>
+        </is>
+      </c>
+      <c r="C127" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D127" s="12" t="inlineStr">
+        <is>
+          <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
+        </is>
+      </c>
+      <c r="E127" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" s="13" t="inlineStr"/>
+      <c r="H127" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C128" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D128" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E128" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F128" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" s="10" t="inlineStr"/>
+      <c r="H128" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B129" s="12" t="inlineStr">
+        <is>
+          <t>SVD-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C129" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D129" s="12" t="inlineStr">
+        <is>
+          <t>SVD,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E129" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="13" t="inlineStr"/>
+      <c r="H129" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B130" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C130" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D130" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E130" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="10" t="inlineStr"/>
+      <c r="H130" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B131" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C131" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D131" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E131" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F131" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G131" s="13" t="inlineStr"/>
+      <c r="H131" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B132" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8S-60S-C</t>
+        </is>
+      </c>
+      <c r="C132" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D132" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
+        </is>
+      </c>
+      <c r="E132" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="10" t="inlineStr"/>
+      <c r="H132" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B133" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C133" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D133" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E133" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" s="13" t="inlineStr"/>
+      <c r="H133" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B134" s="9" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C134" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D134" s="9" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E134" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G134" s="10" t="inlineStr"/>
+      <c r="H134" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B135" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C135" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D135" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E135" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" s="13" t="inlineStr"/>
+      <c r="H135" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B136" s="9" t="inlineStr">
+        <is>
+          <t>SVD-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C136" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D136" s="9" t="inlineStr">
+        <is>
+          <t>SVD,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E136" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="10" t="inlineStr"/>
+      <c r="H136" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B137" s="12" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C137" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D137" s="12" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E137" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="13" t="inlineStr"/>
+      <c r="H137" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B138" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C138" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D138" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E138" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G138" s="10" t="inlineStr"/>
+      <c r="H138" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B139" s="12" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C139" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D139" s="12" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E139" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F139" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" s="13" t="inlineStr"/>
+      <c r="H139" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B140" s="9" t="inlineStr">
+        <is>
+          <t>BKT-ARML-A-C</t>
+        </is>
+      </c>
+      <c r="C140" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D140" s="9" t="inlineStr">
+        <is>
+          <t>BKT,Crossarm inLin,Alum,Corr</t>
+        </is>
+      </c>
+      <c r="E140" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F140" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" s="10" t="inlineStr"/>
+      <c r="H140" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B141" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C141" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D141" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E141" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F141" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" s="13" t="inlineStr"/>
+      <c r="H141" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B142" s="9" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C142" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D142" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E142" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F142" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G142" s="10" t="inlineStr"/>
+      <c r="H142" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B143" s="12" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-4-C-LC1</t>
+        </is>
+      </c>
+      <c r="C143" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D143" s="12" t="inlineStr">
+        <is>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+        </is>
+      </c>
+      <c r="E143" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" s="13" t="inlineStr"/>
+      <c r="H143" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B144" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C144" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D144" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E144" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="10" t="inlineStr"/>
+      <c r="H144" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B145" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C145" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D145" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E145" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F145" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" s="13" t="inlineStr"/>
+      <c r="H145" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B146" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C146" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D146" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E146" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G146" s="10" t="inlineStr"/>
+      <c r="H146" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B147" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C147" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D147" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E147" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F147" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G147" s="13" t="inlineStr"/>
+      <c r="H147" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B148" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C148" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D148" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E148" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F148" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G148" s="10" t="inlineStr"/>
+      <c r="H148" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B149" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C149" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D149" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E149" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="13" t="inlineStr"/>
+      <c r="H149" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B150" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C150" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D150" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E150" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" s="10" t="inlineStr"/>
+      <c r="H150" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B151" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20-C</t>
+        </is>
+      </c>
+      <c r="C151" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D151" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+        </is>
+      </c>
+      <c r="E151" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" s="13" t="inlineStr"/>
+      <c r="H151" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B152" s="9" t="inlineStr">
+        <is>
+          <t>SWI-27-CO1-100-H-C</t>
+        </is>
+      </c>
+      <c r="C152" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D152" s="9" t="inlineStr">
+        <is>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+        </is>
+      </c>
+      <c r="E152" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G152" s="10" t="inlineStr"/>
+      <c r="H152" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B153" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C153" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D153" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E153" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F153" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="G153" s="13" t="inlineStr"/>
+      <c r="H153" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B154" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-TL-C</t>
+        </is>
+      </c>
+      <c r="C154" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D154" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ft Sgl.Fiberglass,Gain,Tang LD,Corr</t>
+        </is>
+      </c>
+      <c r="E154" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F154" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G154" s="10" t="inlineStr"/>
+      <c r="H154" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B155" s="12" t="inlineStr">
+        <is>
+          <t>BKT-ARML-A-C</t>
+        </is>
+      </c>
+      <c r="C155" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D155" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Crossarm inLin,Alum,Corr</t>
+        </is>
+      </c>
+      <c r="E155" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F155" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G155" s="13" t="inlineStr"/>
+      <c r="H155" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B156" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C156" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D156" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E156" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F156" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G156" s="10" t="inlineStr"/>
+      <c r="H156" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B157" s="12" t="inlineStr">
+        <is>
+          <t>CND-S620A</t>
+        </is>
+      </c>
+      <c r="C157" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D157" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+        </is>
+      </c>
+      <c r="E157" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F157" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G157" s="13" t="inlineStr"/>
+      <c r="H157" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B158" s="9" t="inlineStr">
+        <is>
+          <t>DEG-10-SNA</t>
+        </is>
+      </c>
+      <c r="C158" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D158" s="9" t="inlineStr">
+        <is>
+          <t>DEG,1/0,Secondary Neutral Al</t>
+        </is>
+      </c>
+      <c r="E158" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F158" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" s="10" t="inlineStr"/>
+      <c r="H158" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B159" s="12" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-4-C-LC1</t>
+        </is>
+      </c>
+      <c r="C159" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D159" s="12" t="inlineStr">
+        <is>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+        </is>
+      </c>
+      <c r="E159" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F159" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G159" s="13" t="inlineStr"/>
+      <c r="H159" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B160" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C160" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D160" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E160" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F160" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" s="10" t="inlineStr"/>
+      <c r="H160" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B161" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C161" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D161" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E161" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F161" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" s="13" t="inlineStr"/>
+      <c r="H161" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B162" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C162" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D162" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E162" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F162" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G162" s="10" t="inlineStr"/>
+      <c r="H162" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B163" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C163" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D163" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E163" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F163" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G163" s="13" t="inlineStr"/>
+      <c r="H163" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B164" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C164" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D164" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E164" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F164" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G164" s="10" t="inlineStr"/>
+      <c r="H164" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B165" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C165" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D165" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E165" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F165" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" s="13" t="inlineStr"/>
+      <c r="H165" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B166" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C166" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D166" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E166" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F166" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" s="10" t="inlineStr"/>
+      <c r="H166" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B167" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20-C</t>
+        </is>
+      </c>
+      <c r="C167" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D167" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+        </is>
+      </c>
+      <c r="E167" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F167" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G167" s="13" t="inlineStr"/>
+      <c r="H167" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B168" s="9" t="inlineStr">
+        <is>
+          <t>SWI-27-CO1-100-H-C</t>
+        </is>
+      </c>
+      <c r="C168" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D168" s="9" t="inlineStr">
+        <is>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+        </is>
+      </c>
+      <c r="E168" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F168" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G168" s="10" t="inlineStr"/>
+      <c r="H168" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B169" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C169" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D169" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E169" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F169" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="G169" s="13" t="inlineStr"/>
+      <c r="H169" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B170" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C170" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D170" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E170" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F170" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" s="10" t="inlineStr"/>
+      <c r="H170" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B171" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-5</t>
+        </is>
+      </c>
+      <c r="C171" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D171" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E171" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F171" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" s="13" t="inlineStr"/>
+      <c r="H171" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B172" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C172" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D172" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E172" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F172" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" s="10" t="inlineStr"/>
+      <c r="H172" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H124" s="16" t="n">
-        <v>17513.73</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="7" t="inlineStr">
+      <c r="H173" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="7" t="inlineStr">
         <is>
           <t>Wednesday (07/23/2025)</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="8" t="inlineStr">
+    <row r="177">
+      <c r="A177" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B128" s="8" t="inlineStr">
+      <c r="B177" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C128" s="8" t="inlineStr">
+      <c r="C177" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D128" s="8" t="inlineStr">
+      <c r="D177" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E128" s="8" t="inlineStr">
+      <c r="E177" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F128" s="8" t="inlineStr">
+      <c r="F177" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G128" s="8" t="inlineStr">
+      <c r="G177" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H128" s="8" t="inlineStr">
+      <c r="H177" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="9" t="inlineStr">
+    <row r="178">
+      <c r="A178" s="9" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B129" s="9" t="inlineStr">
+      <c r="B178" s="9" t="inlineStr">
         <is>
           <t>TAP-CR-10</t>
         </is>
       </c>
-      <c r="C129" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D129" s="9" t="inlineStr">
+      <c r="C178" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D178" s="9" t="inlineStr">
         <is>
           <t>TAP,T Compression Run,1/0</t>
         </is>
       </c>
-      <c r="E129" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F129" s="10" t="n">
+      <c r="E178" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F178" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="G129" s="10" t="inlineStr"/>
-      <c r="H129" s="11" t="n">
-        <v>524.15</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="12" t="inlineStr">
+      <c r="G178" s="10" t="inlineStr"/>
+      <c r="H178" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="12" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B130" s="12" t="inlineStr">
+      <c r="B179" s="12" t="inlineStr">
         <is>
           <t>ANC-DHM-10-84-D1</t>
         </is>
       </c>
-      <c r="C130" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D130" s="12" t="inlineStr">
+      <c r="C179" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D179" s="12" t="inlineStr">
         <is>
           <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
         </is>
       </c>
-      <c r="E130" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F130" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" s="13" t="inlineStr"/>
-      <c r="H130" s="14" t="n">
-        <v>217.53</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="9" t="inlineStr">
+      <c r="E179" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F179" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" s="13" t="inlineStr"/>
+      <c r="H179" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B131" s="9" t="inlineStr">
+      <c r="B180" s="9" t="inlineStr">
         <is>
           <t>TAP-CR-10</t>
         </is>
       </c>
-      <c r="C131" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D131" s="9" t="inlineStr">
+      <c r="C180" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D180" s="9" t="inlineStr">
         <is>
           <t>TAP,T Compression Run,1/0</t>
         </is>
       </c>
-      <c r="E131" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F131" s="10" t="n">
+      <c r="E180" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F180" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="G131" s="10" t="inlineStr"/>
-      <c r="H131" s="11" t="n">
-        <v>285.9</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="12" t="inlineStr">
+      <c r="G180" s="10" t="inlineStr"/>
+      <c r="H180" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="12" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B132" s="12" t="inlineStr">
+      <c r="B181" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C132" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D132" s="12" t="inlineStr">
+      <c r="C181" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D181" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E132" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F132" s="13" t="n">
+      <c r="E181" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F181" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G132" s="13" t="inlineStr"/>
-      <c r="H132" s="14" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="9" t="inlineStr">
+      <c r="G181" s="13" t="inlineStr"/>
+      <c r="H181" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B133" s="9" t="inlineStr">
+      <c r="B182" s="9" t="inlineStr">
         <is>
           <t>PIN-XAL-C</t>
         </is>
       </c>
-      <c r="C133" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D133" s="9" t="inlineStr">
+      <c r="C182" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D182" s="9" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
-      <c r="E133" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F133" s="10" t="n">
+      <c r="E182" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F182" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G133" s="10" t="inlineStr"/>
-      <c r="H133" s="11" t="n">
-        <v>188.34</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="12" t="inlineStr">
+      <c r="G182" s="10" t="inlineStr"/>
+      <c r="H182" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="12" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B134" s="12" t="inlineStr">
+      <c r="B183" s="12" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C134" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D134" s="12" t="inlineStr">
+      <c r="C183" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D183" s="12" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E134" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F134" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G134" s="13" t="inlineStr"/>
-      <c r="H134" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="9" t="inlineStr">
+      <c r="E183" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F183" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" s="13" t="inlineStr"/>
+      <c r="H183" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B135" s="9" t="inlineStr">
+      <c r="B184" s="9" t="inlineStr">
         <is>
           <t>SAA-SP-336</t>
         </is>
       </c>
-      <c r="C135" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D135" s="9" t="inlineStr">
+      <c r="C184" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D184" s="9" t="inlineStr">
         <is>
           <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
-      <c r="E135" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F135" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" s="10" t="inlineStr"/>
-      <c r="H135" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="12" t="inlineStr">
+      <c r="E184" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F184" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" s="10" t="inlineStr"/>
+      <c r="H184" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="12" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B136" s="12" t="inlineStr">
+      <c r="B185" s="12" t="inlineStr">
         <is>
           <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
-      <c r="C136" s="12" t="inlineStr">
+      <c r="C185" s="12" t="inlineStr">
         <is>
           <t>Tran</t>
         </is>
       </c>
-      <c r="D136" s="12" t="inlineStr">
+      <c r="D185" s="12" t="inlineStr">
         <is>
           <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
-      <c r="E136" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F136" s="13" t="n">
+      <c r="E185" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F185" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G136" s="13" t="inlineStr"/>
-      <c r="H136" s="14" t="n">
-        <v>391.66</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="9" t="inlineStr">
+      <c r="G185" s="13" t="inlineStr"/>
+      <c r="H185" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="9" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B137" s="9" t="inlineStr">
+      <c r="B186" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C186" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D186" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E186" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F186" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G186" s="10" t="inlineStr"/>
+      <c r="H186" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B187" s="12" t="inlineStr">
         <is>
           <t>SVD-3-CV-C</t>
         </is>
       </c>
-      <c r="C137" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D137" s="9" t="inlineStr">
+      <c r="C187" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D187" s="12" t="inlineStr">
         <is>
           <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E137" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F137" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" s="10" t="inlineStr"/>
-      <c r="H137" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="12" t="inlineStr">
+      <c r="E187" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F187" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" s="13" t="inlineStr"/>
+      <c r="H187" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="9" t="inlineStr">
         <is>
           <t>Point 19</t>
         </is>
       </c>
-      <c r="B138" s="12" t="inlineStr">
+      <c r="B188" s="9" t="inlineStr">
         <is>
           <t>SVD-SG2</t>
         </is>
       </c>
-      <c r="C138" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D138" s="12" t="inlineStr">
+      <c r="C188" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D188" s="9" t="inlineStr">
         <is>
           <t>SVD,Service Grip,#2</t>
         </is>
       </c>
-      <c r="E138" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F138" s="13" t="n">
+      <c r="E188" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F188" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G138" s="13" t="inlineStr"/>
-      <c r="H138" s="14" t="n">
-        <v>572.5</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="9" t="inlineStr">
+      <c r="G188" s="10" t="inlineStr"/>
+      <c r="H188" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="12" t="inlineStr">
+        <is>
+          <t>Point 19</t>
+        </is>
+      </c>
+      <c r="B189" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C189" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D189" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E189" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F189" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G189" s="13" t="inlineStr"/>
+      <c r="H189" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="9" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B139" s="9" t="inlineStr">
+      <c r="B190" s="9" t="inlineStr">
         <is>
           <t>ARM-8S-60S-C</t>
         </is>
       </c>
-      <c r="C139" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D139" s="9" t="inlineStr">
+      <c r="C190" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D190" s="9" t="inlineStr">
         <is>
           <t>ARM,8ft Single Wood,60in Sgl.Wd,Corr</t>
         </is>
       </c>
-      <c r="E139" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F139" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" s="10" t="inlineStr"/>
-      <c r="H139" s="11" t="n">
-        <v>61.83</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="12" t="inlineStr">
+      <c r="E190" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F190" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" s="10" t="inlineStr"/>
+      <c r="H190" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="12" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B140" s="12" t="inlineStr">
+      <c r="B191" s="12" t="inlineStr">
         <is>
           <t>DEC-20AL-C</t>
         </is>
       </c>
-      <c r="C140" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D140" s="12" t="inlineStr">
+      <c r="C191" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D191" s="12" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
-      <c r="E140" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F140" s="13" t="n">
+      <c r="E191" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F191" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G140" s="13" t="inlineStr"/>
-      <c r="H140" s="14" t="n">
-        <v>190.3</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="9" t="inlineStr">
+      <c r="G191" s="13" t="inlineStr"/>
+      <c r="H191" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="9" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B141" s="9" t="inlineStr">
+      <c r="B192" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C141" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D141" s="9" t="inlineStr">
+      <c r="C192" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D192" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E141" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F141" s="10" t="n">
+      <c r="E192" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F192" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G141" s="10" t="inlineStr"/>
-      <c r="H141" s="11" t="n">
-        <v>62.16</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="12" t="inlineStr">
+      <c r="G192" s="10" t="inlineStr"/>
+      <c r="H192" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="12" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B142" s="12" t="inlineStr">
+      <c r="B193" s="12" t="inlineStr">
         <is>
           <t>PIN-XAL-C</t>
         </is>
       </c>
-      <c r="C142" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D142" s="12" t="inlineStr">
+      <c r="C193" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D193" s="12" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
-      <c r="E142" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F142" s="13" t="n">
+      <c r="E193" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F193" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G142" s="13" t="inlineStr"/>
-      <c r="H142" s="14" t="n">
-        <v>62.16</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="9" t="inlineStr">
+      <c r="G193" s="13" t="inlineStr"/>
+      <c r="H193" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="9" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B143" s="9" t="inlineStr">
+      <c r="B194" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C194" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D194" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E194" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F194" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G194" s="10" t="inlineStr"/>
+      <c r="H194" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B195" s="12" t="inlineStr">
         <is>
           <t>SAA-DE-20-C</t>
         </is>
       </c>
-      <c r="C143" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D143" s="9" t="inlineStr">
+      <c r="C195" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D195" s="12" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
-      <c r="E143" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F143" s="10" t="n">
+      <c r="E195" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F195" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G143" s="10" t="inlineStr"/>
-      <c r="H143" s="11" t="n">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="12" t="inlineStr">
+      <c r="G195" s="13" t="inlineStr"/>
+      <c r="H195" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="9" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B144" s="12" t="inlineStr">
+      <c r="B196" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C196" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D196" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E196" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F196" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G196" s="10" t="inlineStr"/>
+      <c r="H196" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B197" s="12" t="inlineStr">
         <is>
           <t>SVD-3-CV-C</t>
         </is>
       </c>
-      <c r="C144" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D144" s="12" t="inlineStr">
+      <c r="C197" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D197" s="12" t="inlineStr">
         <is>
           <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E144" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F144" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G144" s="13" t="inlineStr"/>
-      <c r="H144" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="9" t="inlineStr">
+      <c r="E197" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F197" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" s="13" t="inlineStr"/>
+      <c r="H197" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="9" t="inlineStr">
         <is>
           <t>Point 20</t>
         </is>
       </c>
-      <c r="B145" s="9" t="inlineStr">
+      <c r="B198" s="9" t="inlineStr">
         <is>
           <t>SVD-SG2</t>
         </is>
       </c>
-      <c r="C145" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D145" s="9" t="inlineStr">
+      <c r="C198" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D198" s="9" t="inlineStr">
         <is>
           <t>SVD,Service Grip,#2</t>
         </is>
       </c>
-      <c r="E145" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F145" s="10" t="n">
+      <c r="E198" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F198" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G145" s="10" t="inlineStr"/>
-      <c r="H145" s="11" t="n">
-        <v>190.3</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="12" t="inlineStr">
+      <c r="G198" s="10" t="inlineStr"/>
+      <c r="H198" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="12" t="inlineStr">
+        <is>
+          <t>Point 20</t>
+        </is>
+      </c>
+      <c r="B199" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C199" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D199" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E199" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F199" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G199" s="13" t="inlineStr"/>
+      <c r="H199" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="9" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B146" s="12" t="inlineStr">
+      <c r="B200" s="9" t="inlineStr">
         <is>
           <t>ARM-8SF-GN-DL-C</t>
         </is>
       </c>
-      <c r="C146" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D146" s="12" t="inlineStr">
+      <c r="C200" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D200" s="9" t="inlineStr">
         <is>
           <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
         </is>
       </c>
-      <c r="E146" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F146" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" s="13" t="inlineStr"/>
-      <c r="H146" s="14" t="n">
-        <v>350.53</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="9" t="inlineStr">
+      <c r="E200" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F200" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" s="10" t="inlineStr"/>
+      <c r="H200" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="12" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B147" s="9" t="inlineStr">
+      <c r="B201" s="12" t="inlineStr">
         <is>
           <t>BKT-AC18-F-C</t>
         </is>
       </c>
-      <c r="C147" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D147" s="9" t="inlineStr">
+      <c r="C201" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D201" s="12" t="inlineStr">
         <is>
           <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
-      <c r="E147" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F147" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G147" s="10" t="inlineStr"/>
-      <c r="H147" s="11" t="n">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="12" t="inlineStr">
+      <c r="E201" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F201" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" s="13" t="inlineStr"/>
+      <c r="H201" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="9" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B148" s="12" t="inlineStr">
+      <c r="B202" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C202" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D202" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E202" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F202" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" s="10" t="inlineStr"/>
+      <c r="H202" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B203" s="12" t="inlineStr">
         <is>
           <t>CND-S620A</t>
         </is>
       </c>
-      <c r="C148" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D148" s="12" t="inlineStr">
+      <c r="C203" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D203" s="12" t="inlineStr">
         <is>
           <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
-      <c r="E148" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F148" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G148" s="13" t="inlineStr"/>
-      <c r="H148" s="14" t="n">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="9" t="inlineStr">
+      <c r="E203" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F203" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" s="13" t="inlineStr"/>
+      <c r="H203" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="9" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B149" s="9" t="inlineStr">
+      <c r="B204" s="9" t="inlineStr">
         <is>
           <t>DEC-20AL-C</t>
         </is>
       </c>
-      <c r="C149" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D149" s="9" t="inlineStr">
+      <c r="C204" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D204" s="9" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
-      <c r="E149" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F149" s="10" t="n">
+      <c r="E204" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F204" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G149" s="10" t="inlineStr"/>
-      <c r="H149" s="11" t="n">
-        <v>572.5</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="12" t="inlineStr">
+      <c r="G204" s="10" t="inlineStr"/>
+      <c r="H204" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="12" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B150" s="12" t="inlineStr">
+      <c r="B205" s="12" t="inlineStr">
         <is>
           <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
-      <c r="C150" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D150" s="12" t="inlineStr">
+      <c r="C205" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D205" s="12" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
-      <c r="E150" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F150" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" s="13" t="inlineStr"/>
-      <c r="H150" s="14" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="9" t="inlineStr">
+      <c r="E205" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F205" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" s="13" t="inlineStr"/>
+      <c r="H205" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="9" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B151" s="9" t="inlineStr">
+      <c r="B206" s="9" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C151" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D151" s="9" t="inlineStr">
+      <c r="C206" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D206" s="9" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E151" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F151" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" s="10" t="inlineStr"/>
-      <c r="H151" s="11" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="12" t="inlineStr">
+      <c r="E206" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F206" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" s="10" t="inlineStr"/>
+      <c r="H206" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="12" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B152" s="12" t="inlineStr">
+      <c r="B207" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C207" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D207" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E207" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F207" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G207" s="13" t="inlineStr"/>
+      <c r="H207" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B208" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C208" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D208" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E208" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F208" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G208" s="10" t="inlineStr"/>
+      <c r="H208" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B209" s="12" t="inlineStr">
         <is>
           <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
-      <c r="C152" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D152" s="12" t="inlineStr">
+      <c r="C209" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D209" s="12" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
-      <c r="E152" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F152" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" s="13" t="inlineStr"/>
-      <c r="H152" s="14" t="n">
-        <v>79.34999999999999</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="9" t="inlineStr">
+      <c r="E209" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F209" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" s="13" t="inlineStr"/>
+      <c r="H209" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="9" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B153" s="9" t="inlineStr">
+      <c r="B210" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C210" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D210" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E210" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F210" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G210" s="10" t="inlineStr"/>
+      <c r="H210" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B211" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C211" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D211" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E211" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F211" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G211" s="13" t="inlineStr"/>
+      <c r="H211" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B212" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM-C</t>
+        </is>
+      </c>
+      <c r="C212" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D212" s="9" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+        </is>
+      </c>
+      <c r="E212" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F212" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G212" s="10" t="inlineStr"/>
+      <c r="H212" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B213" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C213" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D213" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E213" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F213" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G213" s="13" t="inlineStr"/>
+      <c r="H213" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B214" s="9" t="inlineStr">
         <is>
           <t>SAA-DE-20-C</t>
         </is>
       </c>
-      <c r="C153" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D153" s="9" t="inlineStr">
+      <c r="C214" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D214" s="9" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
-      <c r="E153" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F153" s="10" t="n">
+      <c r="E214" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F214" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G153" s="10" t="inlineStr"/>
-      <c r="H153" s="11" t="n">
-        <v>165.54</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="12" t="inlineStr">
+      <c r="G214" s="10" t="inlineStr"/>
+      <c r="H214" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="12" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B154" s="12" t="inlineStr">
+      <c r="B215" s="12" t="inlineStr">
         <is>
           <t>SAA-SP-336</t>
         </is>
       </c>
-      <c r="C154" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D154" s="12" t="inlineStr">
+      <c r="C215" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D215" s="12" t="inlineStr">
         <is>
           <t>SAA,Spreader Bkt, 336MCM Max</t>
         </is>
       </c>
-      <c r="E154" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F154" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G154" s="13" t="inlineStr"/>
-      <c r="H154" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="9" t="inlineStr">
+      <c r="E215" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F215" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" s="13" t="inlineStr"/>
+      <c r="H215" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="9" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B155" s="9" t="inlineStr">
+      <c r="B216" s="9" t="inlineStr">
         <is>
           <t>SVC-2-TP-AAA-RS</t>
         </is>
       </c>
-      <c r="C155" s="9" t="inlineStr">
+      <c r="C216" s="9" t="inlineStr">
         <is>
           <t>Tran</t>
         </is>
       </c>
-      <c r="D155" s="9" t="inlineStr">
+      <c r="D216" s="9" t="inlineStr">
         <is>
           <t>SVC, #2 AWG ,Trip,Alum/Alloy Neut,RS</t>
         </is>
       </c>
-      <c r="E155" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F155" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G155" s="10" t="inlineStr"/>
-      <c r="H155" s="11" t="n">
-        <v>195.83</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="12" t="inlineStr">
+      <c r="E216" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F216" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" s="10" t="inlineStr"/>
+      <c r="H216" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="12" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B156" s="12" t="inlineStr">
+      <c r="B217" s="12" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C217" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D217" s="12" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E217" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F217" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" s="13" t="inlineStr"/>
+      <c r="H217" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B218" s="9" t="inlineStr">
         <is>
           <t>SVD-3-CV-C</t>
         </is>
       </c>
-      <c r="C156" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D156" s="12" t="inlineStr">
+      <c r="C218" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D218" s="9" t="inlineStr">
         <is>
           <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E156" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F156" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" s="13" t="inlineStr"/>
-      <c r="H156" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="9" t="inlineStr">
+      <c r="E218" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F218" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" s="10" t="inlineStr"/>
+      <c r="H218" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="12" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B157" s="9" t="inlineStr">
+      <c r="B219" s="12" t="inlineStr">
         <is>
           <t>SVD-SG2</t>
         </is>
       </c>
-      <c r="C157" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D157" s="9" t="inlineStr">
+      <c r="C219" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D219" s="12" t="inlineStr">
         <is>
           <t>SVD,Service Grip,#2</t>
         </is>
       </c>
-      <c r="E157" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F157" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G157" s="10" t="inlineStr"/>
-      <c r="H157" s="11" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="12" t="inlineStr">
+      <c r="E219" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F219" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" s="13" t="inlineStr"/>
+      <c r="H219" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="9" t="inlineStr">
         <is>
           <t>Point 21</t>
         </is>
       </c>
-      <c r="B158" s="12" t="inlineStr">
+      <c r="B220" s="9" t="inlineStr">
         <is>
           <t>XCO-27-100-8-C</t>
         </is>
       </c>
-      <c r="C158" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D158" s="12" t="inlineStr">
+      <c r="C220" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D220" s="9" t="inlineStr">
         <is>
           <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
-      <c r="E158" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F158" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G158" s="13" t="inlineStr"/>
-      <c r="H158" s="14" t="n">
-        <v>62.42</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="9" t="inlineStr">
+      <c r="E220" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F220" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" s="10" t="inlineStr"/>
+      <c r="H220" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="12" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B159" s="9" t="inlineStr">
+      <c r="B221" s="12" t="inlineStr">
         <is>
           <t>ANC-DHM-10-84-T1-C</t>
         </is>
       </c>
-      <c r="C159" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D159" s="9" t="inlineStr">
+      <c r="C221" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D221" s="12" t="inlineStr">
         <is>
           <t>ANC,Dbl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
-      <c r="E159" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F159" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" s="10" t="inlineStr"/>
-      <c r="H159" s="11" t="n">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="12" t="inlineStr">
+      <c r="E221" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F221" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" s="13" t="inlineStr"/>
+      <c r="H221" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="9" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B160" s="12" t="inlineStr">
+      <c r="B222" s="9" t="inlineStr">
         <is>
           <t>ARM-8D-60S-C</t>
         </is>
       </c>
-      <c r="C160" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D160" s="12" t="inlineStr">
+      <c r="C222" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D222" s="9" t="inlineStr">
         <is>
           <t>ARM,8Ft Double Wood,60In Sgl.Wd,Corr</t>
         </is>
       </c>
-      <c r="E160" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F160" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G160" s="13" t="inlineStr"/>
-      <c r="H160" s="14" t="n">
-        <v>73.73</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="9" t="inlineStr">
+      <c r="E222" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F222" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" s="10" t="inlineStr"/>
+      <c r="H222" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="12" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B161" s="9" t="inlineStr">
+      <c r="B223" s="12" t="inlineStr">
         <is>
           <t>BKT-AC18-F-C</t>
         </is>
       </c>
-      <c r="C161" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D161" s="9" t="inlineStr">
+      <c r="C223" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D223" s="12" t="inlineStr">
         <is>
           <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
-      <c r="E161" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F161" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" s="10" t="inlineStr"/>
-      <c r="H161" s="11" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="12" t="inlineStr">
+      <c r="E223" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F223" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" s="13" t="inlineStr"/>
+      <c r="H223" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="9" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B162" s="12" t="inlineStr">
+      <c r="B224" s="9" t="inlineStr">
         <is>
           <t>DEC-20AL-C</t>
         </is>
       </c>
-      <c r="C162" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D162" s="12" t="inlineStr">
+      <c r="C224" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D224" s="9" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
-      <c r="E162" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F162" s="13" t="n">
+      <c r="E224" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F224" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G162" s="13" t="inlineStr"/>
-      <c r="H162" s="14" t="n">
-        <v>190.3</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="9" t="inlineStr">
+      <c r="G224" s="10" t="inlineStr"/>
+      <c r="H224" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="12" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B163" s="9" t="inlineStr">
+      <c r="B225" s="12" t="inlineStr">
         <is>
           <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
-      <c r="C163" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D163" s="9" t="inlineStr">
+      <c r="C225" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D225" s="12" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
-      <c r="E163" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F163" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" s="10" t="inlineStr"/>
-      <c r="H163" s="11" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="12" t="inlineStr">
+      <c r="E225" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F225" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" s="13" t="inlineStr"/>
+      <c r="H225" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="9" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B164" s="12" t="inlineStr">
+      <c r="B226" s="9" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C164" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D164" s="12" t="inlineStr">
+      <c r="C226" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D226" s="9" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E164" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F164" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" s="13" t="inlineStr"/>
-      <c r="H164" s="14" t="n">
-        <v>60.43</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="9" t="inlineStr">
+      <c r="E226" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F226" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" s="10" t="inlineStr"/>
+      <c r="H226" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="12" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B165" s="9" t="inlineStr">
+      <c r="B227" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C227" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D227" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E227" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F227" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" s="13" t="inlineStr"/>
+      <c r="H227" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B228" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C228" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D228" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E228" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F228" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" s="10" t="inlineStr"/>
+      <c r="H228" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B229" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-78W-I-C</t>
+        </is>
+      </c>
+      <c r="C229" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D229" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
+        </is>
+      </c>
+      <c r="E229" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F229" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" s="13" t="inlineStr"/>
+      <c r="H229" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B230" s="9" t="inlineStr">
         <is>
           <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
-      <c r="C165" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D165" s="9" t="inlineStr">
+      <c r="C230" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D230" s="9" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
-      <c r="E165" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F165" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G165" s="10" t="inlineStr"/>
-      <c r="H165" s="11" t="n">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="12" t="inlineStr">
+      <c r="E230" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F230" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" s="10" t="inlineStr"/>
+      <c r="H230" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="12" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B166" s="12" t="inlineStr">
+      <c r="B231" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C231" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D231" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E231" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F231" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="G231" s="13" t="inlineStr"/>
+      <c r="H231" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B232" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C232" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D232" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E232" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F232" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G232" s="10" t="inlineStr"/>
+      <c r="H232" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B233" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM-C</t>
+        </is>
+      </c>
+      <c r="C233" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D233" s="12" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+        </is>
+      </c>
+      <c r="E233" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F233" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G233" s="13" t="inlineStr"/>
+      <c r="H233" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="9" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B234" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C234" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D234" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E234" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F234" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G234" s="10" t="inlineStr"/>
+      <c r="H234" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B235" s="12" t="inlineStr">
         <is>
           <t>POL-40-5</t>
         </is>
       </c>
-      <c r="C166" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D166" s="12" t="inlineStr">
+      <c r="C235" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D235" s="12" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 5</t>
         </is>
       </c>
-      <c r="E166" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F166" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G166" s="13" t="inlineStr"/>
-      <c r="H166" s="14" t="n">
-        <v>198.88</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="9" t="inlineStr">
+      <c r="E235" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F235" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" s="13" t="inlineStr"/>
+      <c r="H235" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="9" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B167" s="9" t="inlineStr">
+      <c r="B236" s="9" t="inlineStr">
         <is>
           <t>SAA-3-S3</t>
         </is>
       </c>
-      <c r="C167" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D167" s="9" t="inlineStr">
+      <c r="C236" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D236" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Sec Rack 3 Pos</t>
         </is>
       </c>
-      <c r="E167" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F167" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G167" s="10" t="inlineStr"/>
-      <c r="H167" s="11" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="12" t="inlineStr">
+      <c r="E236" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F236" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" s="10" t="inlineStr"/>
+      <c r="H236" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="12" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B168" s="12" t="inlineStr">
+      <c r="B237" s="12" t="inlineStr">
         <is>
           <t>SAA-DE-20-C</t>
         </is>
       </c>
-      <c r="C168" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D168" s="12" t="inlineStr">
+      <c r="C237" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D237" s="12" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
-      <c r="E168" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F168" s="13" t="n">
+      <c r="E237" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F237" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G168" s="13" t="inlineStr"/>
-      <c r="H168" s="14" t="n">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="9" t="inlineStr">
+      <c r="G237" s="13" t="inlineStr"/>
+      <c r="H237" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="9" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B169" s="9" t="inlineStr">
+      <c r="B238" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C238" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D238" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E238" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F238" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" s="10" t="inlineStr"/>
+      <c r="H238" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="12" t="inlineStr">
+        <is>
+          <t>Point 22</t>
+        </is>
+      </c>
+      <c r="B239" s="12" t="inlineStr">
         <is>
           <t>SVD-3-CV-C</t>
         </is>
       </c>
-      <c r="C169" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D169" s="9" t="inlineStr">
+      <c r="C239" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D239" s="12" t="inlineStr">
         <is>
           <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E169" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F169" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" s="10" t="inlineStr"/>
-      <c r="H169" s="11" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="12" t="inlineStr">
+      <c r="E239" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F239" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" s="13" t="inlineStr"/>
+      <c r="H239" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="9" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B170" s="12" t="inlineStr">
+      <c r="B240" s="9" t="inlineStr">
         <is>
           <t>SVD-SG2</t>
         </is>
       </c>
-      <c r="C170" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D170" s="12" t="inlineStr">
+      <c r="C240" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D240" s="9" t="inlineStr">
         <is>
           <t>SVD,Service Grip,#2</t>
         </is>
       </c>
-      <c r="E170" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F170" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G170" s="13" t="inlineStr"/>
-      <c r="H170" s="14" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="9" t="inlineStr">
+      <c r="E240" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F240" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" s="10" t="inlineStr"/>
+      <c r="H240" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="12" t="inlineStr">
         <is>
           <t>Point 22</t>
         </is>
       </c>
-      <c r="B171" s="9" t="inlineStr">
+      <c r="B241" s="12" t="inlineStr">
         <is>
           <t>XCO-27-100-8-C</t>
         </is>
       </c>
-      <c r="C171" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D171" s="9" t="inlineStr">
+      <c r="C241" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D241" s="12" t="inlineStr">
         <is>
           <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
-      <c r="E171" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F171" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G171" s="10" t="inlineStr"/>
-      <c r="H171" s="11" t="n">
-        <v>26.52</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="15" t="inlineStr">
+      <c r="E241" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F241" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G241" s="13" t="inlineStr"/>
+      <c r="H241" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H172" s="16" t="n">
-        <v>6296.710000000001</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="7" t="inlineStr">
+      <c r="H242" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="7" t="inlineStr">
         <is>
           <t>Thursday (07/24/2025)</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="8" t="inlineStr">
+    <row r="246">
+      <c r="A246" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B176" s="8" t="inlineStr">
+      <c r="B246" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C176" s="8" t="inlineStr">
+      <c r="C246" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D176" s="8" t="inlineStr">
+      <c r="D246" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E176" s="8" t="inlineStr">
+      <c r="E246" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F176" s="8" t="inlineStr">
+      <c r="F246" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G176" s="8" t="inlineStr">
+      <c r="G246" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H176" s="8" t="inlineStr">
+      <c r="H246" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="9" t="inlineStr">
+    <row r="247">
+      <c r="A247" s="9" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B247" s="9" t="inlineStr">
+        <is>
+          <t>SVC-10-QD-ALA-CC</t>
+        </is>
+      </c>
+      <c r="C247" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D247" s="9" t="inlineStr">
+        <is>
+          <t>SVC,1/0,Quad,Alum/Aly Neut,Corr/Comm</t>
+        </is>
+      </c>
+      <c r="E247" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F247" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="G247" s="10" t="inlineStr"/>
+      <c r="H247" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B177" s="9" t="inlineStr">
+      <c r="B248" s="12" t="inlineStr">
         <is>
           <t>TAP-CR-10</t>
         </is>
       </c>
-      <c r="C177" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D177" s="9" t="inlineStr">
+      <c r="C248" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D248" s="12" t="inlineStr">
         <is>
           <t>TAP,T Compression Run,1/0</t>
         </is>
       </c>
-      <c r="E177" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F177" s="10" t="n">
+      <c r="E248" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F248" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="G177" s="10" t="inlineStr"/>
-      <c r="H177" s="11" t="n">
-        <v>571.8</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="12" t="inlineStr">
+      <c r="G248" s="13" t="inlineStr"/>
+      <c r="H248" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B178" s="12" t="inlineStr">
+      <c r="B249" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C249" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D249" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E249" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F249" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G249" s="10" t="inlineStr"/>
+      <c r="H249" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="12" t="inlineStr">
+        <is>
+          <t>Point 21</t>
+        </is>
+      </c>
+      <c r="B250" s="12" t="inlineStr">
+        <is>
+          <t>SVC-10-QD-ALA</t>
+        </is>
+      </c>
+      <c r="C250" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D250" s="12" t="inlineStr">
+        <is>
+          <t>#NO MATCH</t>
+        </is>
+      </c>
+      <c r="E250" s="12" t="inlineStr">
+        <is>
+          <t>#NO MATCH</t>
+        </is>
+      </c>
+      <c r="F250" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="G250" s="13" t="inlineStr"/>
+      <c r="H250" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B251" s="9" t="inlineStr">
         <is>
           <t>SLB-W-18-A-1-F</t>
         </is>
       </c>
-      <c r="C178" s="12" t="inlineStr">
+      <c r="C251" s="9" t="inlineStr">
         <is>
           <t>Tran</t>
         </is>
       </c>
-      <c r="D178" s="12" t="inlineStr">
+      <c r="D251" s="9" t="inlineStr">
         <is>
           <t>SLB,Wood,18in,Alu,1Pos,Flood</t>
         </is>
       </c>
-      <c r="E178" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F178" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G178" s="13" t="inlineStr"/>
-      <c r="H178" s="14" t="n">
-        <v>118.38</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="9" t="inlineStr">
+      <c r="E251" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F251" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" s="10" t="inlineStr"/>
+      <c r="H251" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B179" s="9" t="inlineStr">
+      <c r="B252" s="12" t="inlineStr">
         <is>
           <t>SLT-400-SFMSG</t>
         </is>
       </c>
-      <c r="C179" s="9" t="inlineStr">
+      <c r="C252" s="12" t="inlineStr">
         <is>
           <t>Tran</t>
         </is>
       </c>
-      <c r="D179" s="9" t="inlineStr">
+      <c r="D252" s="12" t="inlineStr">
         <is>
           <t>400W Multi-Volt Sodm Fldligt, Slipfit,Gr</t>
         </is>
       </c>
-      <c r="E179" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F179" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G179" s="10" t="inlineStr"/>
-      <c r="H179" s="11" t="n">
-        <v>128.82</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="12" t="inlineStr">
+      <c r="E252" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F252" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" s="13" t="inlineStr"/>
+      <c r="H252" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B180" s="12" t="inlineStr">
+      <c r="B253" s="9" t="inlineStr">
         <is>
           <t>XCO-27-100-8-C</t>
         </is>
       </c>
-      <c r="C180" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D180" s="12" t="inlineStr">
+      <c r="C253" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D253" s="9" t="inlineStr">
         <is>
           <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
-      <c r="E180" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F180" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G180" s="13" t="inlineStr"/>
-      <c r="H180" s="14" t="n">
-        <v>62.42</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="9" t="inlineStr">
+      <c r="E253" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F253" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" s="10" t="inlineStr"/>
+      <c r="H253" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B181" s="9" t="inlineStr">
+      <c r="B254" s="12" t="inlineStr">
         <is>
           <t>XFR-25-72-120-1B-S</t>
         </is>
       </c>
-      <c r="C181" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D181" s="9" t="inlineStr">
+      <c r="C254" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D254" s="12" t="inlineStr">
         <is>
           <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
         </is>
       </c>
-      <c r="E181" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F181" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G181" s="10" t="inlineStr"/>
-      <c r="H181" s="11" t="n">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="12" t="inlineStr">
+      <c r="E254" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F254" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G254" s="13" t="inlineStr"/>
+      <c r="H254" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="9" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B182" s="12" t="inlineStr">
+      <c r="B255" s="9" t="inlineStr">
         <is>
           <t>BKT-AC18-F-C</t>
         </is>
       </c>
-      <c r="C182" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D182" s="12" t="inlineStr">
+      <c r="C255" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D255" s="9" t="inlineStr">
         <is>
           <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
-      <c r="E182" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F182" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G182" s="13" t="inlineStr"/>
-      <c r="H182" s="14" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="9" t="inlineStr">
+      <c r="E255" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F255" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G255" s="10" t="inlineStr"/>
+      <c r="H255" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="12" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B183" s="9" t="inlineStr">
+      <c r="B256" s="12" t="inlineStr">
         <is>
           <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
-      <c r="C183" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D183" s="9" t="inlineStr">
+      <c r="C256" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D256" s="12" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
-      <c r="E183" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F183" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G183" s="10" t="inlineStr"/>
-      <c r="H183" s="11" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="12" t="inlineStr">
+      <c r="E256" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F256" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G256" s="13" t="inlineStr"/>
+      <c r="H256" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="9" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B184" s="12" t="inlineStr">
+      <c r="B257" s="9" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C184" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D184" s="12" t="inlineStr">
+      <c r="C257" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D257" s="9" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E184" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F184" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G184" s="13" t="inlineStr"/>
-      <c r="H184" s="14" t="n">
-        <v>60.43</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="9" t="inlineStr">
+      <c r="E257" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F257" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G257" s="10" t="inlineStr"/>
+      <c r="H257" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="12" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B185" s="9" t="inlineStr">
+      <c r="B258" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C258" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D258" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E258" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F258" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G258" s="13" t="inlineStr"/>
+      <c r="H258" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B259" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C185" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D185" s="9" t="inlineStr">
+      <c r="C259" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D259" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E185" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F185" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G185" s="10" t="inlineStr"/>
-      <c r="H185" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="12" t="inlineStr">
+      <c r="E259" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F259" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G259" s="10" t="inlineStr"/>
+      <c r="H259" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="12" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B186" s="12" t="inlineStr">
+      <c r="B260" s="12" t="inlineStr">
         <is>
           <t>XCO-27-100-8-C</t>
         </is>
       </c>
-      <c r="C186" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D186" s="12" t="inlineStr">
+      <c r="C260" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D260" s="12" t="inlineStr">
         <is>
           <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
-      <c r="E186" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F186" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" s="13" t="inlineStr"/>
-      <c r="H186" s="14" t="n">
-        <v>26.52</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="9" t="inlineStr">
+      <c r="E260" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F260" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" s="13" t="inlineStr"/>
+      <c r="H260" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="9" t="inlineStr">
         <is>
           <t>Point 06</t>
         </is>
       </c>
-      <c r="B187" s="9" t="inlineStr">
+      <c r="B261" s="9" t="inlineStr">
         <is>
           <t>XFR-25-72-120-1B-S</t>
         </is>
       </c>
-      <c r="C187" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D187" s="9" t="inlineStr">
+      <c r="C261" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D261" s="9" t="inlineStr">
         <is>
           <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
         </is>
       </c>
-      <c r="E187" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F187" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G187" s="10" t="inlineStr"/>
-      <c r="H187" s="11" t="n">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="15" t="inlineStr">
+      <c r="E261" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F261" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" s="10" t="inlineStr"/>
+      <c r="H261" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H188" s="16" t="n">
-        <v>1525.82</v>
+      <c r="H262" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A245:H245"/>
+    <mergeCell ref="A176:H176"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A188:G188"/>
+    <mergeCell ref="A173:G173"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A175:H175"/>
+    <mergeCell ref="A262:G262"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A127:H127"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A172:G172"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A242:G242"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
